--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,28 +105,124 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>104375-1</t>
+  </si>
+  <si>
+    <t>Corynebacterium ulcerans DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>104376-9</t>
+  </si>
+  <si>
+    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>16134-9</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>16676-9</t>
+  </si>
+  <si>
+    <t>Corynebacterium diphtheriae [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>21613-5</t>
   </si>
   <si>
     <t>Chlamydia trachomatis DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>24102-6</t>
+  </si>
+  <si>
+    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
+  </si>
+  <si>
+    <t>29907-3</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae B DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>31777-6</t>
   </si>
   <si>
     <t>Chlamydia trachomatis Ag [Presence] in Specimen</t>
   </si>
   <si>
+    <t>31912-9</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31969-9</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>38353-9</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>43304-5</t>
   </si>
   <si>
     <t>Chlamydia trachomatis rRNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>49671-1</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>49672-9</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>58473-0</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae serotype DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>61366-1</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>6349-5</t>
   </si>
   <si>
     <t>Chlamydia trachomatis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6600-1</t>
+  </si>
+  <si>
+    <t>Haemophilus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>67561-1</t>
+  </si>
+  <si>
+    <t>Corynebacterium diphtheriae DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>69410-9</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae [Identifier] in Specimen by Organism specific culture</t>
   </si>
   <si>
     <t/>
@@ -404,7 +500,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -459,15 +555,143 @@
         <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,42 +105,18 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>104375-1</t>
-  </si>
-  <si>
-    <t>Corynebacterium ulcerans DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>104376-9</t>
-  </si>
-  <si>
-    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
     <t>16134-9</t>
   </si>
   <si>
     <t>Neisseria meningitidis [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
-    <t>16676-9</t>
-  </si>
-  <si>
-    <t>Corynebacterium diphtheriae [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
     <t>21613-5</t>
   </si>
   <si>
     <t>Chlamydia trachomatis DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>24102-6</t>
-  </si>
-  <si>
-    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
-  </si>
-  <si>
     <t>29907-3</t>
   </si>
   <si>
@@ -201,6 +177,12 @@
     <t>Haemophilus influenzae DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>61369-5</t>
+  </si>
+  <si>
+    <t>Listeria monocytogenes DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>6349-5</t>
   </si>
   <si>
@@ -213,10 +195,10 @@
     <t>Haemophilus sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
-    <t>67561-1</t>
-  </si>
-  <si>
-    <t>Corynebacterium diphtheriae DNA [Presence] in Specimen by NAA with probe detection</t>
+    <t>6609-2</t>
+  </si>
+  <si>
+    <t>Listeria sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
     <t>69410-9</t>
@@ -500,7 +482,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -659,39 +641,15 @@
         <v>64</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-expecting-specimen-specification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
